--- a/biology/Zoologie/Eozygiella_compacta/Eozygiella_compacta.xlsx
+++ b/biology/Zoologie/Eozygiella_compacta/Eozygiella_compacta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eozygiella
 Eozygiella compacta, unique représentant du genre Eozygiella, est une espèce fossile d'araignées aranéomorphes de la famille des Araneidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique. Elle date du Paléogène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique. Elle date du Paléogène.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Wunderlich, 2004 : The fossil spiders (Araneae) of the families Tetragnathidae and Zygiellidae n. stat. in Baltic and Dominican amber, with notes on higher extant and fossil taxa. Beiträge zur Araneologie, vol. 3, p. 899–955.</t>
         </is>
